--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1990,6 +1990,44 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>not conscious of something, especially what is happening around you:
+not aware of or not noticing something, esp. what is happening around you:</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>oblivious</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Absorbed in her work, she was totally oblivious of her surroundings.
+The mayor seems oblivious to the likely effects of the new legislation.
+She was often oblivious to the potential consequences of her actions.
+One end of a channel is oblivious to whether or not its opposite end is connected or moves.
+The designers we have worked with either remain blissfully oblivious to this, or notice and manage to adapt over time.
+We remain largely oblivious to these processes because they constitute the everyday practices that form the taken-for-granted landscape of our lives.
+But the boys were too oblivious to notice.
+Even so the city remains an attractive venue with a vibrant and inclusive street-culture, seemingly oblivious of the climate in its state of undress.
+The writers of memoirs were not oblivious to their tense relation to history.
+His belated recognition of their existence in the later essay is perfunctory, and remains oblivious to their character and significance.
+A thick layer of keratin develops, to which the patient is usually oblivious, and autolysis takes place underneath.
+He is also unexpectedly sensitive to touch or sounds at one moment, but at others he seems almost completely oblivious to them.
+It is a fiction to demand that they be oblivious.
+The clip shows the opening and closing mechanism that the plant adopts to catch its oblivious prey.
+Unfortunately, most humans are oblivious of such arbitrary cut-offs and develop the wrong illness at the wrong time !
+They might have been oblivious to the presence of recording equipment during their interaction.
+Their average estimates of 1958 were non-contextualized and oblivious to distributional issues.
+Moreover, teachers, researchers, and policy-makers will remain oblivious of the tools that are available for the analysis of social and economic problems.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2028,6 +2028,136 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>gradually making something weaker and destroying it, especially the strength or confidence of an enemy by repeatedly attacking it:
+a reduction in the number of people who work for an organization that is achieved by not replacing those people who leave
+the people who leave an educational or training course before it has finished:
+a gradual reduction in the number of people who work for an organization that is achieved by not replacing those who leave:
+a reduction in the number of employees in a company made by not replacing those who leave, rather than forcing people to leave their jobs:
+a reduction in the number of people who buy a product or service, for example because of its age, increased competition, etc.:</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>attrition</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Terrorist groups and the government have been engaged in a costly war of attrition since 2008.
+The high attrition rates on the degree programs are a cause for concern.
+Most of the job losses will come through attrition.
+The majority of jobs will go through natural attrition.
+Staff attrition rates are high.
+We aim to minimize the rate of customer attrition.
+Second, the high rate of follow-up participation reduces the risk of bias due to selective attrition.
+Attrition was not an end in itself, but a means to an end.
+It is possible that these decreasing scores are due to performance issues, rather than an attrition of underlying competence or knowledge.
+The reason for the attrition (death/other) was not significantly associated with age.
+Inconclusive studies covered diverse interventions and were characterised by poor reporting, weak study design, high attrition rates, and small or unrepresentative samples.
+There were no significant differences in attrition rates at sixth and eighth grades related to peer status or aggression at third grade.
+Each group of mice was assayed for early phase attrition by skin or skin and lung recovery; and for late phase attrition by liver perfusion.
+Furthermore, comparison of participants and the eligible population show that sample attrition is an unlikely source of confounding in this investigation.
+The late phase of parasite attrition occurs between days 6 and 14.
+The inclusion of these variables in the regression analyses adjusts for the bias introduced by selective attrition on these variables.
+The attrition of the dyadic relationships within the sample was examined.
+Extended nonlinear calculations exhibit recurrence, in some cases, and attrition of the vortex by repeated wave amplification, steepening, and breaking in others.
+Language attrition, our topic here, refers to the gradual forgetting of a language by individual attriters, persons who are experiencing attrition.
+Dental attrition levels suggest a broader and flatter age profile for the pendants than for the soldiers, with a significantly higher mean age.
+Duration analysis is the best model for the attrition game that characterizes presidential nominations over the past three decades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>the process of making something less or weaker:
+the process or fact of making something longer and thinner:</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>attenuation</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>The airport has undertaken a noise attenuation programme.
+The drug plays a role in the attenuation of inflammation.
+the graceful attenuation of a Modigliani sculpture</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>to express disagreement or refuse to do something:
+the act of expressing disagreement or of refusing to do something:
+to express disagreement or refusal to do something:</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>demur</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>The lawyer requested a break in the court case, but the judge demurred.
+She agreed to his request without demur.
+Jack urged me to go, but I demurred.
+The seminar quietly finessed the definitional question, not without a few polite demurs.
+Patients denied the therapeutic benefits of those drugs in the interim might once again demur.
+Up to a point, it is hard to demur.
+It is hard to demur at this verdict.
+While some claim that biotechnology is the answer to both food security and a healthy planet, other demur.
+While some claim that such crops are the answer to both food security and a healthy planet, others demur.
+I demurred, feeling that it might be seen as too personal or otherwise inappropriate for this journal.
+Wulstan demurs on this matter: he tells me that he thinks the rhymes in these letters are 'more coincidental than systematic'.
+Along the journey from musical grammar to hermeneutic exegesis individual readers may well want to pause and to demur but it is impossible not to be fascinated.
+Those who demur on the significance of rationes interpret it as entailing the application of the same set of principles that justified the preceding case(s).
+Russell demurred, pointing out that no provision had been made for arms, ammunition, or money, and that no declaration had been prepared, let alone agreed on.
+Roberts demurs, and shows oneness in hierarchy.
+I would demur, however, to the possible inference that this percentage represents the full measure of the beneficial operation of the administrative system referred to.
+He demurs on the ground that the cost of making it fit would be disproportionate to the value of the house.
+I understand that the associations of local authorities have in no way demurred at that suggestion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>to agree to do what people have asked you to do:
+to become king or queen, or to take a position of power:</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>accede</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>He graciously acceded to our request.
+It is doubtful whether the government will ever accede to the nationalists' demands for independence.
+The diaries were written in 1837, when Queen Victoria acceded to the throne.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
